--- a/My Sets/Crackpots (Atari 2600)/Crackpots - Plan.xlsx
+++ b/My Sets/Crackpots (Atari 2600)/Crackpots - Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\RetroArch\Achievements\Crackpots\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\RetroArch\Achievements\Crackpots (Atari 2600)\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -289,18 +289,6 @@
     <t>Complete 5 waves while on the last floor before a game over!</t>
   </si>
   <si>
-    <t>Get a 2x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</t>
-  </si>
-  <si>
-    <t>Get a 3x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</t>
-  </si>
-  <si>
-    <t>Get a 4x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</t>
-  </si>
-  <si>
-    <t>Get a 5x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</t>
-  </si>
-  <si>
     <t>Complete 10 waves without losing a floor!</t>
   </si>
   <si>
@@ -310,18 +298,6 @@
     <t>Landscaper</t>
   </si>
   <si>
-    <t>Squash 2 bugs in a combo! (Combos end when all the pots have been reset)</t>
-  </si>
-  <si>
-    <t>Squash 3 bugs in a combo! (Combos end when all the pots have been reset)</t>
-  </si>
-  <si>
-    <t>Squash 5 bugs in a combo! (Combos end when all the pots have been reset)</t>
-  </si>
-  <si>
-    <t>Squash 7 bugs in a combo! (Combos end when all the pots have been reset)</t>
-  </si>
-  <si>
     <t>Triple Play</t>
   </si>
   <si>
@@ -350,6 +326,30 @@
   </si>
   <si>
     <t>R:d0xH0017&lt;0xH0017_N:d0xH0073=0_C:0xH0073=1_N:d0xH0073=1_C:0xH0073=2_N:d0xH0073=2_C:0xH0073=3_N:d0xH0073=3_C:0xH0073=0_M:1=0</t>
+  </si>
+  <si>
+    <t>Get a 2x multiplier! Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier.</t>
+  </si>
+  <si>
+    <t>Get a 3x multiplier! Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier.</t>
+  </si>
+  <si>
+    <t>Get a 4x multiplier! Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier.</t>
+  </si>
+  <si>
+    <t>Get a 5x multiplier! Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier.</t>
+  </si>
+  <si>
+    <t>Squash 2 bugs in a combo! Combos end when all the pots have been reset.</t>
+  </si>
+  <si>
+    <t>Squash 7 bugs in a combo! Combos end when all the pots have been reset.</t>
+  </si>
+  <si>
+    <t>Squash 5 bugs in a combo! Combos end when all the pots have been reset.</t>
+  </si>
+  <si>
+    <t>Squash 3 bugs in a combo! Combos end when all the pots have been reset.</t>
   </si>
 </sst>
 </file>
@@ -873,7 +873,7 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1041,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="6"/>
@@ -1066,7 +1066,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="6"/>
@@ -1091,7 +1091,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="6"/>
@@ -1116,7 +1116,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1148,7 +1148,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>13</v>
@@ -1157,7 +1157,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I11" s="6"/>
     </row>
@@ -1200,7 +1200,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="6"/>
@@ -1350,7 +1350,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1361,7 +1361,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>10</v>
@@ -1371,7 +1371,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1382,7 +1382,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>12</v>
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="6"/>
@@ -1407,7 +1407,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>13</v>
@@ -1417,7 +1417,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="6"/>
@@ -2638,16 +2638,16 @@
         <v>66</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>62</v>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2664,16 +2664,16 @@
         <v>67</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>62</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="B6" s="9" t="str">
         <f>Achievements!F6</f>
-        <v>Get a 2x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
+        <v>Get a 2x multiplier! Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier.</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>21</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="B7" s="9" t="str">
         <f>Achievements!F7</f>
-        <v>Get a 3x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
+        <v>Get a 3x multiplier! Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier.</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>21</v>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="B8" s="9" t="str">
         <f>Achievements!F8</f>
-        <v>Get a 4x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
+        <v>Get a 4x multiplier! Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier.</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>21</v>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B9" s="9" t="str">
         <f>Achievements!F9</f>
-        <v>Get a 5x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
+        <v>Get a 5x multiplier! Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier.</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>21</v>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B19" s="9" t="str">
         <f>Achievements!F19</f>
-        <v>Squash 2 bugs in a combo! (Combos end when all the pots have been reset)</v>
+        <v>Squash 2 bugs in a combo! Combos end when all the pots have been reset.</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>21</v>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="B20" s="9" t="str">
         <f>Achievements!F20</f>
-        <v>Squash 3 bugs in a combo! (Combos end when all the pots have been reset)</v>
+        <v>Squash 3 bugs in a combo! Combos end when all the pots have been reset.</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>21</v>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B21" s="9" t="str">
         <f>Achievements!F21</f>
-        <v>Squash 5 bugs in a combo! (Combos end when all the pots have been reset)</v>
+        <v>Squash 5 bugs in a combo! Combos end when all the pots have been reset.</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>21</v>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="B22" s="9" t="str">
         <f>Achievements!F22</f>
-        <v>Squash 7 bugs in a combo! (Combos end when all the pots have been reset)</v>
+        <v>Squash 7 bugs in a combo! Combos end when all the pots have been reset.</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>21</v>
@@ -3878,25 +3878,25 @@
     <row r="7" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Rookie Bug Hunter (3)[/b] - Get a 2x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
+        <v>[b]Rookie Bug Hunter (3)[/b] - Get a 2x multiplier! Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier.</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Expert Bug Hunter (5)[/b] - Get a 3x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
+        <v>[b]Expert Bug Hunter (5)[/b] - Get a 3x multiplier! Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier.</v>
       </c>
     </row>
     <row r="9" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Master Bug Hunter (5)[/b] - Get a 4x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
+        <v>[b]Master Bug Hunter (5)[/b] - Get a 4x multiplier! Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier.</v>
       </c>
     </row>
     <row r="10" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Champion Bug Hunter (10)[/b] - Get a 5x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
+        <v>[b]Champion Bug Hunter (10)[/b] - Get a 5x multiplier! Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier.</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3956,25 +3956,25 @@
     <row r="20" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Two for One (2)[/b] - Squash 2 bugs in a combo! (Combos end when all the pots have been reset)</v>
+        <v>[b]Two for One (2)[/b] - Squash 2 bugs in a combo! Combos end when all the pots have been reset.</v>
       </c>
     </row>
     <row r="21" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Triple Play (3)[/b] - Squash 3 bugs in a combo! (Combos end when all the pots have been reset)</v>
+        <v>[b]Triple Play (3)[/b] - Squash 3 bugs in a combo! Combos end when all the pots have been reset.</v>
       </c>
     </row>
     <row r="22" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Five in a Row (5)[/b] - Squash 5 bugs in a combo! (Combos end when all the pots have been reset)</v>
+        <v>[b]Five in a Row (5)[/b] - Squash 5 bugs in a combo! Combos end when all the pots have been reset.</v>
       </c>
     </row>
     <row r="23" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Seven in One Blow (10)[/b] - Squash 7 bugs in a combo! (Combos end when all the pots have been reset)</v>
+        <v>[b]Seven in One Blow (10)[/b] - Squash 7 bugs in a combo! Combos end when all the pots have been reset.</v>
       </c>
     </row>
     <row r="24" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
